--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Fzd4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7183383333333332</v>
+        <v>0.1860306666666667</v>
       </c>
       <c r="H2">
-        <v>2.155015</v>
+        <v>0.558092</v>
       </c>
       <c r="I2">
-        <v>0.1157638296793402</v>
+        <v>0.0235467122458118</v>
       </c>
       <c r="J2">
-        <v>0.1157638296793402</v>
+        <v>0.02354671224581179</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.38232766666667</v>
+        <v>30.58864766666666</v>
       </c>
       <c r="N2">
-        <v>91.14698300000001</v>
+        <v>91.76594299999999</v>
       </c>
       <c r="O2">
-        <v>0.4410933377331532</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="P2">
-        <v>0.4410933377331531</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="Q2">
-        <v>21.82479061886055</v>
+        <v>5.690426517861778</v>
       </c>
       <c r="R2">
-        <v>196.423115569745</v>
+        <v>51.213838660756</v>
       </c>
       <c r="S2">
-        <v>0.05106265402203241</v>
+        <v>0.009243006328263886</v>
       </c>
       <c r="T2">
-        <v>0.0510626540220324</v>
+        <v>0.009243006328263885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7183383333333332</v>
+        <v>0.1860306666666667</v>
       </c>
       <c r="H3">
-        <v>2.155015</v>
+        <v>0.558092</v>
       </c>
       <c r="I3">
-        <v>0.1157638296793402</v>
+        <v>0.0235467122458118</v>
       </c>
       <c r="J3">
-        <v>0.1157638296793402</v>
+        <v>0.02354671224581179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>68.07160500000001</v>
       </c>
       <c r="O3">
-        <v>0.3294232070665772</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="P3">
-        <v>0.3294232070665772</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="Q3">
-        <v>16.29948109434167</v>
+        <v>4.221135353073334</v>
       </c>
       <c r="R3">
-        <v>146.695329849075</v>
+        <v>37.99021817766</v>
       </c>
       <c r="S3">
-        <v>0.03813529203527725</v>
+        <v>0.0068564246736949</v>
       </c>
       <c r="T3">
-        <v>0.03813529203527725</v>
+        <v>0.006856424673694897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7183383333333332</v>
+        <v>0.1860306666666667</v>
       </c>
       <c r="H4">
-        <v>2.155015</v>
+        <v>0.558092</v>
       </c>
       <c r="I4">
-        <v>0.1157638296793402</v>
+        <v>0.0235467122458118</v>
       </c>
       <c r="J4">
-        <v>0.1157638296793402</v>
+        <v>0.02354671224581179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.71027466666667</v>
+        <v>24.64590566666666</v>
       </c>
       <c r="N4">
-        <v>47.130824</v>
+        <v>73.93771699999999</v>
       </c>
       <c r="O4">
-        <v>0.2280831661567317</v>
+        <v>0.3162769038033173</v>
       </c>
       <c r="P4">
-        <v>0.2280831661567317</v>
+        <v>0.3162769038033172</v>
       </c>
       <c r="Q4">
-        <v>11.28529252026222</v>
+        <v>4.584894261773777</v>
       </c>
       <c r="R4">
-        <v>101.56763268236</v>
+        <v>41.264048355964</v>
       </c>
       <c r="S4">
-        <v>0.02640378079969253</v>
+        <v>0.007447281243853011</v>
       </c>
       <c r="T4">
-        <v>0.02640378079969253</v>
+        <v>0.007447281243853007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7183383333333332</v>
+        <v>4.267456</v>
       </c>
       <c r="H5">
-        <v>2.155015</v>
+        <v>12.802368</v>
       </c>
       <c r="I5">
-        <v>0.1157638296793402</v>
+        <v>0.5401505045064059</v>
       </c>
       <c r="J5">
-        <v>0.1157638296793402</v>
+        <v>0.5401505045064058</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09645133333333333</v>
+        <v>30.58864766666666</v>
       </c>
       <c r="N5">
-        <v>0.289354</v>
+        <v>91.76594299999999</v>
       </c>
       <c r="O5">
-        <v>0.001400289043537939</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="P5">
-        <v>0.001400289043537939</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="Q5">
-        <v>0.06928469003444443</v>
+        <v>130.5357080170027</v>
       </c>
       <c r="R5">
-        <v>0.6235622103099999</v>
+        <v>1174.821372153024</v>
       </c>
       <c r="S5">
-        <v>0.0001621028223379721</v>
+        <v>0.2120302180299361</v>
       </c>
       <c r="T5">
-        <v>0.0001621028223379721</v>
+        <v>0.212030218029936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +788,10 @@
         <v>12.802368</v>
       </c>
       <c r="I6">
-        <v>0.687721964183189</v>
+        <v>0.5401505045064059</v>
       </c>
       <c r="J6">
-        <v>0.6877219641831891</v>
+        <v>0.5401505045064058</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.38232766666667</v>
+        <v>22.690535</v>
       </c>
       <c r="N6">
-        <v>91.14698300000001</v>
+        <v>68.07160500000001</v>
       </c>
       <c r="O6">
-        <v>0.4410933377331532</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="P6">
-        <v>0.4410933377331531</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="Q6">
-        <v>129.6552464950827</v>
+        <v>96.83085972896001</v>
       </c>
       <c r="R6">
-        <v>1166.897218455744</v>
+        <v>871.4777375606402</v>
       </c>
       <c r="S6">
-        <v>0.3033495766139628</v>
+        <v>0.157283157323384</v>
       </c>
       <c r="T6">
-        <v>0.3033495766139628</v>
+        <v>0.157283157323384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +850,10 @@
         <v>12.802368</v>
       </c>
       <c r="I7">
-        <v>0.687721964183189</v>
+        <v>0.5401505045064059</v>
       </c>
       <c r="J7">
-        <v>0.6877219641831891</v>
+        <v>0.5401505045064058</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +862,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.690535</v>
+        <v>24.64590566666666</v>
       </c>
       <c r="N7">
-        <v>68.07160500000001</v>
+        <v>73.93771699999999</v>
       </c>
       <c r="O7">
-        <v>0.3294232070665772</v>
+        <v>0.3162769038033173</v>
       </c>
       <c r="P7">
-        <v>0.3294232070665772</v>
+        <v>0.3162769038033172</v>
       </c>
       <c r="Q7">
-        <v>96.83085972896001</v>
+        <v>105.1753180126507</v>
       </c>
       <c r="R7">
-        <v>871.4777375606402</v>
+        <v>946.577862113856</v>
       </c>
       <c r="S7">
-        <v>0.2265515750113519</v>
+        <v>0.1708371291530859</v>
       </c>
       <c r="T7">
-        <v>0.2265515750113519</v>
+        <v>0.1708371291530858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.267456</v>
+        <v>3.447007666666666</v>
       </c>
       <c r="H8">
-        <v>12.802368</v>
+        <v>10.341023</v>
       </c>
       <c r="I8">
-        <v>0.687721964183189</v>
+        <v>0.4363027832477824</v>
       </c>
       <c r="J8">
-        <v>0.6877219641831891</v>
+        <v>0.4363027832477824</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +924,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.71027466666667</v>
+        <v>30.58864766666666</v>
       </c>
       <c r="N8">
-        <v>47.130824</v>
+        <v>91.76594299999999</v>
       </c>
       <c r="O8">
-        <v>0.2280831661567317</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="P8">
-        <v>0.2280831661567317</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="Q8">
-        <v>67.04290588791467</v>
+        <v>105.4393030199654</v>
       </c>
       <c r="R8">
-        <v>603.3861529912322</v>
+        <v>948.9537271796889</v>
       </c>
       <c r="S8">
-        <v>0.1568578030264282</v>
+        <v>0.1712659221592898</v>
       </c>
       <c r="T8">
-        <v>0.1568578030264282</v>
+        <v>0.1712659221592898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.267456</v>
+        <v>3.447007666666666</v>
       </c>
       <c r="H9">
-        <v>12.802368</v>
+        <v>10.341023</v>
       </c>
       <c r="I9">
-        <v>0.687721964183189</v>
+        <v>0.4363027832477824</v>
       </c>
       <c r="J9">
-        <v>0.6877219641831891</v>
+        <v>0.4363027832477824</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.09645133333333333</v>
+        <v>22.690535</v>
       </c>
       <c r="N9">
-        <v>0.289354</v>
+        <v>68.07160500000001</v>
       </c>
       <c r="O9">
-        <v>0.001400289043537939</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="P9">
-        <v>0.001400289043537939</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="Q9">
-        <v>0.4116018211413334</v>
+        <v>78.21444810576833</v>
       </c>
       <c r="R9">
-        <v>3.704416390272</v>
+        <v>703.930032951915</v>
       </c>
       <c r="S9">
-        <v>0.0009630095314461106</v>
+        <v>0.1270443676821141</v>
       </c>
       <c r="T9">
-        <v>0.0009630095314461104</v>
+        <v>0.1270443676821141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.219411</v>
+        <v>3.447007666666666</v>
       </c>
       <c r="H10">
-        <v>3.658233</v>
+        <v>10.341023</v>
       </c>
       <c r="I10">
-        <v>0.1965142061374708</v>
+        <v>0.4363027832477824</v>
       </c>
       <c r="J10">
-        <v>0.1965142061374708</v>
+        <v>0.4363027832477824</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.38232766666667</v>
+        <v>24.64590566666666</v>
       </c>
       <c r="N10">
-        <v>91.14698300000001</v>
+        <v>73.93771699999999</v>
       </c>
       <c r="O10">
-        <v>0.4410933377331532</v>
+        <v>0.3162769038033173</v>
       </c>
       <c r="P10">
-        <v>0.4410933377331531</v>
+        <v>0.3162769038033172</v>
       </c>
       <c r="Q10">
-        <v>37.04854456233767</v>
+        <v>84.95462578494343</v>
       </c>
       <c r="R10">
-        <v>333.436901061039</v>
+        <v>764.5916320644909</v>
       </c>
       <c r="S10">
-        <v>0.0866811070971579</v>
+        <v>0.1379924934063785</v>
       </c>
       <c r="T10">
-        <v>0.08668110709715789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.219411</v>
-      </c>
-      <c r="H11">
-        <v>3.658233</v>
-      </c>
-      <c r="I11">
-        <v>0.1965142061374708</v>
-      </c>
-      <c r="J11">
-        <v>0.1965142061374708</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>22.690535</v>
-      </c>
-      <c r="N11">
-        <v>68.07160500000001</v>
-      </c>
-      <c r="O11">
-        <v>0.3294232070665772</v>
-      </c>
-      <c r="P11">
-        <v>0.3294232070665772</v>
-      </c>
-      <c r="Q11">
-        <v>27.669087974885</v>
-      </c>
-      <c r="R11">
-        <v>249.021791773965</v>
-      </c>
-      <c r="S11">
-        <v>0.06473634001994809</v>
-      </c>
-      <c r="T11">
-        <v>0.06473634001994809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.219411</v>
-      </c>
-      <c r="H12">
-        <v>3.658233</v>
-      </c>
-      <c r="I12">
-        <v>0.1965142061374708</v>
-      </c>
-      <c r="J12">
-        <v>0.1965142061374708</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>15.71027466666667</v>
-      </c>
-      <c r="N12">
-        <v>47.130824</v>
-      </c>
-      <c r="O12">
-        <v>0.2280831661567317</v>
-      </c>
-      <c r="P12">
-        <v>0.2280831661567317</v>
-      </c>
-      <c r="Q12">
-        <v>19.15728174155467</v>
-      </c>
-      <c r="R12">
-        <v>172.415535673992</v>
-      </c>
-      <c r="S12">
-        <v>0.04482158233061099</v>
-      </c>
-      <c r="T12">
-        <v>0.04482158233061098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.219411</v>
-      </c>
-      <c r="H13">
-        <v>3.658233</v>
-      </c>
-      <c r="I13">
-        <v>0.1965142061374708</v>
-      </c>
-      <c r="J13">
-        <v>0.1965142061374708</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.09645133333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.289354</v>
-      </c>
-      <c r="O13">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="P13">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="Q13">
-        <v>0.1176138168313333</v>
-      </c>
-      <c r="R13">
-        <v>1.058524351482</v>
-      </c>
-      <c r="S13">
-        <v>0.0002751766897538564</v>
-      </c>
-      <c r="T13">
-        <v>0.0002751766897538564</v>
+        <v>0.1379924934063785</v>
       </c>
     </row>
   </sheetData>
